--- a/2_A3_unemployment_by_district_regr.xlsx
+++ b/2_A3_unemployment_by_district_regr.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BCN\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="23">
   <si>
     <t>District Code</t>
   </si>
@@ -74,13 +79,25 @@
   </si>
   <si>
     <t>Male</t>
+  </si>
+  <si>
+    <t>2018 ML</t>
+  </si>
+  <si>
+    <t>2019 ML</t>
+  </si>
+  <si>
+    <t>2020 ML</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,17 +149,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -189,7 +216,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -221,9 +248,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -255,6 +283,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -430,14 +459,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,17 +498,17 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1">
-        <v>2018</v>
-      </c>
-      <c r="K1" s="1">
-        <v>2019</v>
-      </c>
-      <c r="L1" s="1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="J1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -485,32 +521,32 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>965.2</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>911.4</v>
       </c>
-      <c r="G2">
-        <v>534.3</v>
-      </c>
-      <c r="H2">
+      <c r="G2" s="2">
+        <v>534.29999999999995</v>
+      </c>
+      <c r="H2" s="2">
         <v>491.2</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <v>469.3</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>250.68</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <v>109.48</v>
       </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="L2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -523,32 +559,32 @@
       <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>1352.4</v>
       </c>
-      <c r="F3">
-        <v>1246.9</v>
-      </c>
-      <c r="G3">
+      <c r="F3" s="2">
+        <v>1246.9000000000001</v>
+      </c>
+      <c r="G3" s="2">
         <v>706.7</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <v>637.1</v>
       </c>
-      <c r="I3">
-        <v>583.8</v>
-      </c>
-      <c r="J3">
-        <v>261.28</v>
-      </c>
-      <c r="K3">
+      <c r="I3" s="2">
+        <v>583.79999999999995</v>
+      </c>
+      <c r="J3" s="3">
+        <v>261.27999999999997</v>
+      </c>
+      <c r="K3" s="3">
         <v>46.58</v>
       </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="L3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -561,32 +597,32 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>1329</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>1226.2</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>694.7</v>
       </c>
-      <c r="H4">
-        <v>627.8</v>
-      </c>
-      <c r="I4">
-        <v>583.7</v>
-      </c>
-      <c r="J4">
+      <c r="H4" s="2">
+        <v>627.79999999999995</v>
+      </c>
+      <c r="I4" s="2">
+        <v>583.70000000000005</v>
+      </c>
+      <c r="J4" s="3">
         <v>265.58</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <v>56.68</v>
       </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -599,32 +635,32 @@
       <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>1242.2</v>
       </c>
-      <c r="F5">
-        <v>1132.6</v>
-      </c>
-      <c r="G5">
+      <c r="F5" s="2">
+        <v>1132.5999999999999</v>
+      </c>
+      <c r="G5" s="2">
         <v>628</v>
       </c>
-      <c r="H5">
-        <v>549.7</v>
-      </c>
-      <c r="I5">
+      <c r="H5" s="2">
+        <v>549.70000000000005</v>
+      </c>
+      <c r="I5" s="2">
         <v>501.8</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <v>191.75</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -637,32 +673,32 @@
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>815.6</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>790.7</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <v>456.9</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <v>416.1</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="2">
         <v>385.9</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>202.84</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <v>79.44</v>
       </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -675,32 +711,32 @@
       <c r="D7" t="s">
         <v>19</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>830.9</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>779.6</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <v>428.4</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <v>369</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <v>327.9</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>122.18</v>
       </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -713,32 +749,32 @@
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>774.1</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>732.6</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <v>429.3</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <v>387.1</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="2">
         <v>351.3</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <v>177.55</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="3">
         <v>58.44</v>
       </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -751,32 +787,32 @@
       <c r="D9" t="s">
         <v>19</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>684.4</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>644.4</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="2">
         <v>361.2</v>
       </c>
-      <c r="H9">
-        <v>313.1</v>
-      </c>
-      <c r="I9">
-        <v>277.4</v>
-      </c>
-      <c r="J9">
+      <c r="H9" s="2">
+        <v>313.10000000000002</v>
+      </c>
+      <c r="I9" s="2">
+        <v>277.39999999999998</v>
+      </c>
+      <c r="J9" s="3">
         <v>112.51</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -789,32 +825,32 @@
       <c r="D10" t="s">
         <v>18</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>495.5</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>449.2</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="2">
         <v>251.3</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="2">
         <v>226.3</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="2">
         <v>205.7</v>
       </c>
-      <c r="J10">
-        <v>84.84999999999999</v>
-      </c>
-      <c r="K10">
-        <v>4.6</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="J10" s="3">
+        <v>84.85</v>
+      </c>
+      <c r="K10" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -827,32 +863,32 @@
       <c r="D11" t="s">
         <v>19</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>411.1</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>375.3</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <v>205.3</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="2">
         <v>182.3</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="2">
         <v>167.2</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="3">
         <v>64</v>
       </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -865,32 +901,32 @@
       <c r="D12" t="s">
         <v>18</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>775.3</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>712.2</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="2">
         <v>406.4</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="2">
         <v>368.1</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="2">
         <v>346.2</v>
       </c>
-      <c r="J12">
-        <v>160.95</v>
-      </c>
-      <c r="K12">
+      <c r="J12" s="3">
+        <v>160.94999999999999</v>
+      </c>
+      <c r="K12" s="3">
         <v>40.72</v>
       </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -903,32 +939,32 @@
       <c r="D13" t="s">
         <v>19</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>710.4</v>
       </c>
-      <c r="F13">
-        <v>642.8</v>
-      </c>
-      <c r="G13">
+      <c r="F13" s="2">
+        <v>642.79999999999995</v>
+      </c>
+      <c r="G13" s="2">
         <v>356.7</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="2">
         <v>311.2</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="2">
         <v>276.8</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="3">
         <v>99.94</v>
       </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -941,32 +977,32 @@
       <c r="D14" t="s">
         <v>18</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>552.9</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>521.6</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="2">
         <v>297</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="2">
         <v>273.7</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="2">
         <v>257</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="3">
         <v>128.53</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="3">
         <v>44.56</v>
       </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -979,32 +1015,32 @@
       <c r="D15" t="s">
         <v>19</v>
       </c>
-      <c r="E15">
-        <v>548.7</v>
-      </c>
-      <c r="F15">
+      <c r="E15" s="2">
+        <v>548.70000000000005</v>
+      </c>
+      <c r="F15" s="2">
         <v>505.2</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="2">
         <v>271.8</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="2">
         <v>234.3</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="2">
         <v>207.5</v>
       </c>
-      <c r="J15">
-        <v>67.51000000000001</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="J15" s="3">
+        <v>67.510000000000005</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1017,32 +1053,32 @@
       <c r="D16" t="s">
         <v>18</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>533.9</v>
       </c>
-      <c r="F16">
-        <v>512.8</v>
-      </c>
-      <c r="G16">
+      <c r="F16" s="2">
+        <v>512.79999999999995</v>
+      </c>
+      <c r="G16" s="2">
         <v>297.8</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="2">
         <v>276.5</v>
       </c>
-      <c r="I16">
-        <v>263.9</v>
-      </c>
-      <c r="J16">
+      <c r="I16" s="2">
+        <v>263.89999999999998</v>
+      </c>
+      <c r="J16" s="3">
         <v>144.09</v>
       </c>
-      <c r="K16">
-        <v>66.45999999999999</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="K16" s="3">
+        <v>66.459999999999994</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1055,32 +1091,32 @@
       <c r="D17" t="s">
         <v>19</v>
       </c>
-      <c r="E17">
-        <v>604.8</v>
-      </c>
-      <c r="F17">
-        <v>561.2</v>
-      </c>
-      <c r="G17">
+      <c r="E17" s="2">
+        <v>604.79999999999995</v>
+      </c>
+      <c r="F17" s="2">
+        <v>561.20000000000005</v>
+      </c>
+      <c r="G17" s="2">
         <v>296.5</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="2">
         <v>253.5</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="2">
         <v>221.9</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="3">
         <v>65.53</v>
       </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1093,32 +1129,32 @@
       <c r="D18" t="s">
         <v>18</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <v>813.8</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="2">
         <v>789.8</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="2">
         <v>456.5</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="2">
         <v>412.4</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="2">
         <v>383</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="3">
         <v>199.4</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="3">
         <v>75.5</v>
       </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1131,32 +1167,32 @@
       <c r="D19" t="s">
         <v>19</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>790.8</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
         <v>717.8</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="2">
         <v>399.2</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="2">
         <v>340.4</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="2">
         <v>295.3</v>
       </c>
-      <c r="J19">
-        <v>98.18000000000001</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="J19" s="3">
+        <v>98.18</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1169,32 +1205,32 @@
       <c r="D20" t="s">
         <v>18</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <v>879.4</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="2">
         <v>837.7</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="2">
         <v>473.8</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="2">
         <v>435.9</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="2">
         <v>408.8</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="3">
         <v>204.22</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="3">
         <v>69.92</v>
       </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1207,32 +1243,33 @@
       <c r="D21" t="s">
         <v>19</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="2">
         <v>887</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="2">
         <v>807.4</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="2">
         <v>444.7</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="2">
         <v>383.3</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="2">
         <v>347.5</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="3">
         <v>123.05</v>
       </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>